--- a/SBOL2Excel/sbol_v7.xlsx
+++ b/SBOL2Excel/sbol_v7.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Component" sheetId="1" r:id="rId1"/>
-    <sheet name="Collection" sheetId="2" r:id="rId2"/>
+    <sheet name="Collection" sheetId="1" r:id="rId1"/>
+    <sheet name="Component" sheetId="2" r:id="rId2"/>
     <sheet name="Sequence" sheetId="3" r:id="rId3"/>
     <sheet name="Library" sheetId="4" r:id="rId4"/>
     <sheet name="Ontology Terms" sheetId="5" r:id="rId5"/>
@@ -25,238 +25,238 @@
     <t>IDs</t>
   </si>
   <si>
-    <t>ns0:role</t>
+    <t>sbol:member</t>
+  </si>
+  <si>
+    <t>sbol:displayId</t>
+  </si>
+  <si>
+    <t>sbol:description</t>
+  </si>
+  <si>
+    <t>sbol:hasNamespace</t>
+  </si>
+  <si>
+    <t>http://examples.org/Collection_u32_2</t>
+  </si>
+  <si>
+    <t>http://examples.org/Terminator, http://examples.org/GFP</t>
+  </si>
+  <si>
+    <t>Collection_u32_2</t>
+  </si>
+  <si>
+    <t>Collection of other useful parts</t>
+  </si>
+  <si>
+    <t>http://examples.org/</t>
+  </si>
+  <si>
+    <t>http://examples.org/Promoter_u32_Collection</t>
+  </si>
+  <si>
+    <t>http://examples.org/pAOX6, http://examples.org/pAOX1, http://examples.org/pAOX2, http://examples.org/pAOX3, http://examples.org/pAOX5, http://examples.org/pAOX4</t>
+  </si>
+  <si>
+    <t>Promoter_u32_Collection</t>
+  </si>
+  <si>
+    <t>Collection of pAOX variants</t>
+  </si>
+  <si>
+    <t>sbol:hasSequence</t>
+  </si>
+  <si>
+    <t>ns0:alteration</t>
+  </si>
+  <si>
+    <t>sbol:type</t>
+  </si>
+  <si>
+    <t>sbol:role</t>
+  </si>
+  <si>
+    <t>ns0:sourceOrganism</t>
   </si>
   <si>
     <t>obo:OBI_0001617</t>
   </si>
   <si>
-    <t>ns0:displayId</t>
-  </si>
-  <si>
-    <t>ns0:hasSequence</t>
-  </si>
-  <si>
-    <t>ns0:type</t>
-  </si>
-  <si>
-    <t>ns1:sourceOrganism</t>
-  </si>
-  <si>
-    <t>ns0:hasNamespace</t>
-  </si>
-  <si>
-    <t>ns0:description</t>
-  </si>
-  <si>
-    <t>ns1:alteration</t>
+    <t>http://examples.org/pAOX4</t>
+  </si>
+  <si>
+    <t>pAOX4</t>
+  </si>
+  <si>
+    <t>Promoter variant 4 for peroxisomal N(1)-acetyl-spermine/spermidine oxidase enzyme</t>
+  </si>
+  <si>
+    <t>http://examples.org/pAOX4_sequence</t>
+  </si>
+  <si>
+    <t>['Trimmed Start', 'Trimmed End']</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/SBO:0000251</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/SO_0000804</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_4922</t>
+  </si>
+  <si>
+    <t>28252960</t>
+  </si>
+  <si>
+    <t>http://examples.org/GFP</t>
+  </si>
+  <si>
+    <t>GFP</t>
+  </si>
+  <si>
+    <t>GFP protein</t>
+  </si>
+  <si>
+    <t>http://examples.org/GFP_sequence</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCBITaxon_6100</t>
+  </si>
+  <si>
+    <t>28252961</t>
   </si>
   <si>
     <t>http://examples.org/pAOX5</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/SO_0000804</t>
+    <t>pAOX5</t>
+  </si>
+  <si>
+    <t>Promoter variant 5 for peroxisomal N(1)-acetyl-spermine/spermidine oxidase enzyme</t>
+  </si>
+  <si>
+    <t>http://examples.org/pAOX5_sequence</t>
+  </si>
+  <si>
+    <t>['Decreased AT content']</t>
   </si>
   <si>
     <t>28252963</t>
   </si>
   <si>
-    <t>pAOX5</t>
-  </si>
-  <si>
-    <t>http://examples.org/pAOX5_sequence</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/SBO:0000251</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCBITaxon_4922</t>
-  </si>
-  <si>
-    <t>http://examples.org/</t>
-  </si>
-  <si>
-    <t>Promoter variant 5 for peroxisomal N(1)-acetyl-spermine/spermidine oxidase enzyme</t>
-  </si>
-  <si>
-    <t>['Decreased AT content']</t>
-  </si>
-  <si>
-    <t>http://examples.org/GFP</t>
-  </si>
-  <si>
-    <t>28252961</t>
-  </si>
-  <si>
-    <t>GFP</t>
-  </si>
-  <si>
-    <t>http://examples.org/GFP_sequence</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCBITaxon_6100</t>
-  </si>
-  <si>
-    <t>GFP protein</t>
+    <t>http://examples.org/Terminator</t>
+  </si>
+  <si>
+    <t>Terminator</t>
+  </si>
+  <si>
+    <t>http://examples.org/Terminator_sequence</t>
+  </si>
+  <si>
+    <t>28252962</t>
+  </si>
+  <si>
+    <t>http://examples.org/pAOX3</t>
+  </si>
+  <si>
+    <t>pAOX3</t>
+  </si>
+  <si>
+    <t>Promoter variant 3 for peroxisomal N(1)-acetyl-spermine/spermidine oxidase enzyme</t>
+  </si>
+  <si>
+    <t>http://examples.org/pAOX3_sequence</t>
+  </si>
+  <si>
+    <t>['Trimmed End']</t>
+  </si>
+  <si>
+    <t>28252959</t>
+  </si>
+  <si>
+    <t>http://examples.org/pAOX1</t>
+  </si>
+  <si>
+    <t>pAOX1</t>
+  </si>
+  <si>
+    <t>Promoter variant 1 for peroxisomal N(1)-acetyl-spermine/spermidine oxidase enzyme</t>
+  </si>
+  <si>
+    <t>http://examples.org/pAOX1_sequence</t>
+  </si>
+  <si>
+    <t>['Original']</t>
+  </si>
+  <si>
+    <t>28252957</t>
+  </si>
+  <si>
+    <t>http://examples.org/pAOX2</t>
+  </si>
+  <si>
+    <t>pAOX2</t>
+  </si>
+  <si>
+    <t>Promoter variant 2 for peroxisomal N(1)-acetyl-spermine/spermidine oxidase enzyme</t>
+  </si>
+  <si>
+    <t>http://examples.org/pAOX2_sequence</t>
+  </si>
+  <si>
+    <t>['Decreased GC content']</t>
+  </si>
+  <si>
+    <t>28252958</t>
   </si>
   <si>
     <t>http://examples.org/pAOX6</t>
   </si>
   <si>
+    <t>pAOX6</t>
+  </si>
+  <si>
+    <t>Promoter variant 6 for peroxisomal N(1)-acetyl-spermine/spermidine oxidase enzyme</t>
+  </si>
+  <si>
+    <t>http://examples.org/pAOX6_sequence</t>
+  </si>
+  <si>
+    <t>['Trimmed Start']</t>
+  </si>
+  <si>
     <t>28252964</t>
   </si>
   <si>
-    <t>pAOX6</t>
-  </si>
-  <si>
-    <t>http://examples.org/pAOX6_sequence</t>
-  </si>
-  <si>
-    <t>Promoter variant 6 for peroxisomal N(1)-acetyl-spermine/spermidine oxidase enzyme</t>
-  </si>
-  <si>
-    <t>['Trimmed Start']</t>
-  </si>
-  <si>
-    <t>http://examples.org/Promoter_u32_Collection</t>
-  </si>
-  <si>
-    <t>28252959</t>
-  </si>
-  <si>
-    <t>pAOX3</t>
-  </si>
-  <si>
-    <t>http://examples.org/pAOX3_sequence</t>
-  </si>
-  <si>
-    <t>Promoter variant 3 for peroxisomal N(1)-acetyl-spermine/spermidine oxidase enzyme</t>
-  </si>
-  <si>
-    <t>['Trimmed End']</t>
-  </si>
-  <si>
-    <t>http://examples.org/pAOX3</t>
-  </si>
-  <si>
-    <t>28252960</t>
-  </si>
-  <si>
-    <t>pAOX4</t>
-  </si>
-  <si>
-    <t>http://examples.org/pAOX4_sequence</t>
-  </si>
-  <si>
-    <t>Promoter variant 4 for peroxisomal N(1)-acetyl-spermine/spermidine oxidase enzyme</t>
-  </si>
-  <si>
-    <t>['Trimmed Start', 'Trimmed End']</t>
-  </si>
-  <si>
-    <t>http://examples.org/pAOX1_sequence</t>
-  </si>
-  <si>
-    <t>28252957</t>
-  </si>
-  <si>
-    <t>pAOX1</t>
-  </si>
-  <si>
-    <t>Promoter variant 1 for peroxisomal N(1)-acetyl-spermine/spermidine oxidase enzyme</t>
-  </si>
-  <si>
-    <t>['Original']</t>
-  </si>
-  <si>
-    <t>28252958</t>
-  </si>
-  <si>
-    <t>pAOX2</t>
-  </si>
-  <si>
-    <t>http://examples.org/pAOX2_sequence</t>
-  </si>
-  <si>
-    <t>Promoter variant 2 for peroxisomal N(1)-acetyl-spermine/spermidine oxidase enzyme</t>
-  </si>
-  <si>
-    <t>['Decreased GC content']</t>
-  </si>
-  <si>
-    <t>http://examples.org/pAOX4</t>
-  </si>
-  <si>
-    <t>28252962</t>
-  </si>
-  <si>
-    <t>Terminator</t>
-  </si>
-  <si>
-    <t>http://examples.org/Terminator_sequence</t>
-  </si>
-  <si>
-    <t>ns0:member</t>
-  </si>
-  <si>
-    <t>http://examples.org/pAOX1</t>
-  </si>
-  <si>
-    <t>Promoter_u32_Collection</t>
-  </si>
-  <si>
-    <t>Collection of pAOX variants</t>
-  </si>
-  <si>
-    <t>http://examples.org/pAOX4, http://examples.org/pAOX5, http://examples.org/pAOX1, http://examples.org/pAOX2, http://examples.org/pAOX3, http://examples.org/pAOX6</t>
-  </si>
-  <si>
-    <t>http://examples.org/Terminator</t>
-  </si>
-  <si>
-    <t>Collection_u32_2</t>
-  </si>
-  <si>
-    <t>Collection of other useful parts</t>
-  </si>
-  <si>
-    <t>http://examples.org/GFP, http://examples.org/Terminator</t>
-  </si>
-  <si>
-    <t>ns0:elements</t>
+    <t>sbol:elements</t>
+  </si>
+  <si>
+    <t>pAOX4_sequence</t>
+  </si>
+  <si>
+    <t>atttgc</t>
+  </si>
+  <si>
+    <t>pAOX5_sequence</t>
   </si>
   <si>
     <t>pAOX1_sequence</t>
   </si>
   <si>
-    <t>atttgc</t>
-  </si>
-  <si>
-    <t>http://examples.org/pAOX2</t>
-  </si>
-  <si>
-    <t>pAOX4_sequence</t>
-  </si>
-  <si>
     <t>GFP_sequence</t>
   </si>
   <si>
     <t>pAOX3_sequence</t>
   </si>
   <si>
-    <t>http://examples.org/Collection_u32_2</t>
-  </si>
-  <si>
-    <t>pAOX5_sequence</t>
+    <t>pAOX2_sequence</t>
+  </si>
+  <si>
+    <t>pAOX6_sequence</t>
   </si>
   <si>
     <t>Terminator_sequence</t>
-  </si>
-  <si>
-    <t>pAOX6_sequence</t>
-  </si>
-  <si>
-    <t>pAOX2_sequence</t>
   </si>
   <si>
     <t>Collection Name</t>
@@ -22858,33 +22858,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table0" displayName="Table0" ref="A1:J9">
-  <autoFilter ref="A1:J9"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table0" displayName="Table0" ref="A1:E3">
+  <autoFilter ref="A1:E3"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="IDs"/>
-    <tableColumn id="2" name="ns0:role"/>
-    <tableColumn id="3" name="obo:OBI_0001617"/>
-    <tableColumn id="4" name="ns0:displayId"/>
-    <tableColumn id="5" name="ns0:hasSequence"/>
-    <tableColumn id="6" name="ns0:type"/>
-    <tableColumn id="7" name="ns1:sourceOrganism"/>
-    <tableColumn id="8" name="ns0:hasNamespace"/>
-    <tableColumn id="9" name="ns0:description"/>
-    <tableColumn id="10" name="ns1:alteration"/>
+    <tableColumn id="2" name="sbol:member"/>
+    <tableColumn id="3" name="sbol:displayId"/>
+    <tableColumn id="4" name="sbol:description"/>
+    <tableColumn id="5" name="sbol:hasNamespace"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A1:E3">
-  <autoFilter ref="A1:E3"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A1:J9">
+  <autoFilter ref="A1:J9"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="IDs"/>
-    <tableColumn id="2" name="ns0:displayId"/>
-    <tableColumn id="3" name="ns0:hasNamespace"/>
-    <tableColumn id="4" name="ns0:description"/>
-    <tableColumn id="5" name="ns0:member"/>
+    <tableColumn id="2" name="sbol:displayId"/>
+    <tableColumn id="3" name="sbol:description"/>
+    <tableColumn id="4" name="sbol:hasNamespace"/>
+    <tableColumn id="5" name="sbol:hasSequence"/>
+    <tableColumn id="6" name="ns0:alteration"/>
+    <tableColumn id="7" name="sbol:type"/>
+    <tableColumn id="8" name="sbol:role"/>
+    <tableColumn id="9" name="ns0:sourceOrganism"/>
+    <tableColumn id="10" name="obo:OBI_0001617"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -22895,9 +22895,9 @@
   <autoFilter ref="A1:D9"/>
   <tableColumns count="4">
     <tableColumn id="1" name="IDs"/>
-    <tableColumn id="2" name="ns0:displayId"/>
-    <tableColumn id="3" name="ns0:hasNamespace"/>
-    <tableColumn id="4" name="ns0:elements"/>
+    <tableColumn id="2" name="sbol:displayId"/>
+    <tableColumn id="3" name="sbol:hasNamespace"/>
+    <tableColumn id="4" name="sbol:elements"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23190,26 +23190,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.08984375" customWidth="1"/>
-    <col min="2" max="2" width="39.08984375" customWidth="1"/>
-    <col min="5" max="5" width="21.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" customWidth="1"/>
-    <col min="10" max="10" width="27.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="23.90625" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23225,270 +23221,39 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -23501,68 +23266,305 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="1" max="1" width="22.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" customWidth="1"/>
+    <col min="5" max="5" width="22.36328125" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" customWidth="1"/>
+    <col min="7" max="7" width="18.36328125" customWidth="1"/>
+    <col min="9" max="9" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C8" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F8" t="s">
         <v>61</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B9" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C9" t="s">
         <v>65</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
         <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -23577,16 +23579,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomLeft" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="23.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -23594,13 +23596,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -23608,111 +23610,111 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
